--- a/查询缓存key表.xlsx
+++ b/查询缓存key表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A89A7BF-F573-4090-A142-454FAADBA98B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2267FDA9-F080-40CC-AC65-132914D146D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{E678B40C-9DB3-47F1-BA8A-684623988C05}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>查询缓存对照表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,19 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,6 +74,60 @@
   </si>
   <si>
     <t>备注（标签  或者其他）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminAccess</t>
+  </si>
+  <si>
+    <t>用户组对应权限(菜单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace menu;</t>
+  </si>
+  <si>
+    <t>authority_AdminMenuAccess_getAccess_AdminRole</t>
+  </si>
+  <si>
+    <t>namespace authority;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key （命名空间_类名称_方法名称_变量名称）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息（缓存的数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行地址（命名空间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority_AdminMenuAccess_getAccess_Access</t>
+  </si>
+  <si>
+    <t>对应用户组的所有权限关系id（权限表）菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应用户组的所有权限id(菜单)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority_AdminRouteAccess_getAccess_AdminRole</t>
+  </si>
+  <si>
+    <t>对应用户组的所有权限关系id（权限表）方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authority_AdminRouteAccess_getAccess_Access</t>
+  </si>
+  <si>
+    <t>对应用户组的所有权限id(方法)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,12 +549,15 @@
   <dimension ref="A1:F735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
+    <col min="3" max="3" width="57.375" customWidth="1"/>
+    <col min="4" max="7" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -530,107 +575,147 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
